--- a/static/docs/antrag_finanzierungsplan_muster.xlsx
+++ b/static/docs/antrag_finanzierungsplan_muster.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+  <workbookPr codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="228" windowWidth="16512" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="3440" yWindow="800" windowWidth="20320" windowHeight="12620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Finanzierungsplan_Hinweise" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Finanzierungsplan_Hinweise!$A$1:$A$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Finanzierungsplan_Muster!$A$1:$D$57</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -89,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="115">
   <si>
     <t xml:space="preserve">Nettobetrag </t>
   </si>
@@ -245,9 +250,6 @@
     <t>2.2. Porto</t>
   </si>
   <si>
-    <t>Versand Einladungen</t>
-  </si>
-  <si>
     <t>2.3. Telefon</t>
   </si>
   <si>
@@ -258,9 +260,6 @@
   </si>
   <si>
     <t>2.6. Dokumentation</t>
-  </si>
-  <si>
-    <t>DVDs, Broschüre, je 50 Stck.</t>
   </si>
   <si>
     <t xml:space="preserve">2.7. Gebühren </t>
@@ -403,18 +402,12 @@
     <t>E-Mail: kerstin.neuwirth@senatskanzlei.berlin.de</t>
   </si>
   <si>
-    <t>Workshop "Euro - und wie weiter?"</t>
-  </si>
-  <si>
     <t>Datum:</t>
   </si>
   <si>
     <t>Projekttitel:</t>
   </si>
   <si>
-    <t>1.4.2015 bis 30.06.2015</t>
-  </si>
-  <si>
     <t>Frau ABC</t>
   </si>
   <si>
@@ -448,9 +441,6 @@
     </r>
   </si>
   <si>
-    <t>Europäische Akademie Berlin e. V.</t>
-  </si>
-  <si>
     <t>Stiftung für Kulturelle Weiterbildung und Politikberatung</t>
   </si>
   <si>
@@ -461,9 +451,6 @@
   </si>
   <si>
     <t>Partner für Berlin nur für Catering</t>
-  </si>
-  <si>
-    <t>Farben, Plakatkarton, Pinsel, Becher</t>
   </si>
   <si>
     <t>2.2. Projektpartner</t>
@@ -723,9 +710,6 @@
     <t>2 Personen je 25 Stunden zu je 25 Euro</t>
   </si>
   <si>
-    <t>Die Europäische Akademie Berlin stellt für zwei Tage Räume und einen Techniker für insgesamt acht Stunden zur Verfügung. Die ersparten Ausgaben haben einen Wert von ca. 500 Euro.</t>
-  </si>
-  <si>
     <t>1.1 Ausgaben für eigenes Personal</t>
   </si>
   <si>
@@ -753,26 +737,10 @@
     <t>1. Personal-/Honorarausgaben:  Personenzahl x Stundenzahl x Euro</t>
   </si>
   <si>
-    <t xml:space="preserve">Herr XYZ, 100 Stunden je 30 Euro, vergleichbar E 13 AngleichungsTV Berlin </t>
-  </si>
-  <si>
     <t>eine Referentin N.N., 20 Stunden zu je 20 Euro</t>
   </si>
   <si>
     <t>Frau xyz, 20 Stunden zu je 20 Euro</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Personalausgaben (für eigene Beschäftigte); 8,50 € Mindestlohn gemäß § 7 Abs. 1 Satz 1 i.V.m. § 9 Landesmindestlohngesetz </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(GVBI. 28.12.2013), im Übrigen wegen des Besserstellungsverbots vergleichbar nach Angleichungstarifvertrag für den öffentlichen Dienst des Landes Berlin</t>
-    </r>
   </si>
   <si>
     <r>
@@ -807,6 +775,56 @@
   </si>
   <si>
     <t>ZS 21 - Finanzen, Anti-Korruption</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Personalausgaben (für eigene Beschäftigte); Mindestlohn gemäß § 7 Abs. 1 Satz 1 i.V.m. § 9 Landesmindestlohngesetz </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(GVBI. 28.12.2013), im Übrigen wegen des Besserstellungsverbots vergleichbar nach Angleichungstarifvertrag für den öffentlichen Dienst des Landes Berlin</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Frau XYZ, 100 Stunden je 30 Euro, vergleichbar E 13 AngleichungsTV Berlin </t>
+  </si>
+  <si>
+    <t>1.1.2020 bis 30.06.2020</t>
+  </si>
+  <si>
+    <t>Workshop "Buzzword-Bingo für Einsteiger*innen"</t>
+  </si>
+  <si>
+    <t>Neuland e.V.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Serverkosten</t>
+    </r>
+  </si>
+  <si>
+    <t>Hosting Website</t>
+  </si>
+  <si>
+    <t>Post-It, Sticker, Pinnwand</t>
+  </si>
+  <si>
+    <t>Gestaltung, Druck, je 50 Stck.</t>
+  </si>
+  <si>
+    <t>Die Neuland e.V. stellt für zwei Tage Räume und einen Techniker für insgesamt acht Stunden zur Verfügung. Die ersparten Ausgaben haben einen Wert von ca. 500 Euro.</t>
   </si>
 </sst>
 </file>
@@ -1005,10 +1023,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1016,11 +1034,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1029,7 +1047,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1037,24 +1055,24 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,81 +1080,81 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1146,7 +1164,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1154,16 +1172,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1172,18 +1190,18 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1619,13 +1637,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>518160</xdr:colOff>
+          <xdr:colOff>520700</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>68580</xdr:rowOff>
+          <xdr:rowOff>63500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1664,7 +1682,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>518160</xdr:colOff>
+          <xdr:colOff>520700</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1763,15 +1781,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>861060</xdr:colOff>
+          <xdr:colOff>863600</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>327660</xdr:colOff>
+          <xdr:colOff>330200</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>68580</xdr:rowOff>
+          <xdr:rowOff>63500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1804,13 +1822,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>861060</xdr:colOff>
+          <xdr:colOff>863600</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>327660</xdr:colOff>
+          <xdr:colOff>330200</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2132,236 +2150,242 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView view="pageLayout" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="92.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="18" customHeight="1">
       <c r="A1" s="106" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="18" customHeight="1">
       <c r="A2" s="107" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="18" customHeight="1">
       <c r="A3" s="107" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="18" customHeight="1">
       <c r="A4" s="107" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="18" customHeight="1">
       <c r="A5" s="97" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="18" customHeight="1">
       <c r="A6" s="97" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="18" customHeight="1">
       <c r="A7" s="97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="18" customHeight="1">
       <c r="A8" s="97"/>
     </row>
-    <row r="9" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="18" customHeight="1">
       <c r="A9" s="98" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="18" customHeight="1">
       <c r="A10" s="99" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="37.799999999999997" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="34">
       <c r="A11" s="100" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="18" customHeight="1">
       <c r="A12" s="99" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="18" customHeight="1">
       <c r="A13" s="99" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="18" customHeight="1">
       <c r="A14" s="101"/>
     </row>
-    <row r="15" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="18" customHeight="1">
       <c r="A15" s="98" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="18" customHeight="1">
       <c r="A16" s="99" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="18" customHeight="1">
       <c r="A17" s="99" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18" customHeight="1">
+      <c r="A18" s="99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="18" customHeight="1">
+      <c r="A19" s="99" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="18" customHeight="1">
+      <c r="A20" s="99" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="99" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="99" t="s">
+    <row r="21" spans="1:1" ht="18" customHeight="1">
+      <c r="A21" s="99" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="99" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="99" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="18" customHeight="1">
       <c r="A22" s="99"/>
     </row>
-    <row r="23" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="18" customHeight="1">
       <c r="A23" s="99" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="18" customHeight="1">
       <c r="A24" s="99" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="18" customHeight="1">
       <c r="A25" s="99"/>
     </row>
-    <row r="26" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="18" customHeight="1">
       <c r="A26" s="102" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="18" customHeight="1">
       <c r="A27" s="103" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="18" customHeight="1">
       <c r="A28" s="103" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="18" customHeight="1">
       <c r="A29" s="103" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="18" customHeight="1">
       <c r="A30" s="103" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="18" customHeight="1">
       <c r="A31" s="101"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" s="98" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="18" customHeight="1">
       <c r="A33" s="99" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="18" customHeight="1">
       <c r="A34" s="104"/>
     </row>
-    <row r="35" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="18" customHeight="1">
       <c r="A35" s="49"/>
     </row>
-    <row r="36" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" ht="18" customHeight="1">
       <c r="A36" s="48"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="49"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="47"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="1.5748031496062993" bottom="0.98425196850393704" header="0.78740157480314965" footer="0.625"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Arial Rounded MT Bold,Standard"&amp;16Hinweise zum Finanzierungsplan zu einem Zuwendungsantrag</oddHeader>
     <oddFooter>&amp;R&amp;"-,Standard"&amp;9Senatskanzlei Berlin 3/2015
 Finanzierungsplan Hinweise</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="46.33203125" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.6640625" style="42" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1">
       <c r="A1" s="108" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B1" s="105"/>
       <c r="C1" s="73" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D1" s="72"/>
     </row>
-    <row r="2" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16" customHeight="1">
       <c r="A2" s="73" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="75"/>
       <c r="C2" s="132"/>
       <c r="D2" s="133"/>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="16" customHeight="1">
       <c r="A3" s="73" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B3" s="76"/>
       <c r="C3" s="66" t="s">
@@ -2369,9 +2393,9 @@
       </c>
       <c r="D3" s="61"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="16" customHeight="1">
       <c r="A4" s="73" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="76"/>
       <c r="C4" s="66" t="s">
@@ -2379,7 +2403,7 @@
       </c>
       <c r="D4" s="61"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="16" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2393,7 +2417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -2401,85 +2425,85 @@
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" s="11" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="11" customFormat="1" ht="16" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B7" s="79"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" s="11" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="11" customFormat="1" ht="16" customHeight="1">
       <c r="A8" s="119" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B8" s="79"/>
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" s="51" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="51" customFormat="1" ht="14" customHeight="1">
       <c r="A9" s="117" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B9" s="80"/>
       <c r="C9" s="110"/>
       <c r="D9" s="15"/>
     </row>
-    <row r="10" spans="1:4" s="51" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="51" customFormat="1" ht="14" customHeight="1">
       <c r="A10" s="117" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B10" s="80"/>
       <c r="C10" s="111"/>
       <c r="D10" s="15"/>
     </row>
-    <row r="11" spans="1:4" s="51" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="51" customFormat="1" ht="14" customHeight="1">
       <c r="A11" s="117" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B11" s="80"/>
       <c r="C11" s="111"/>
       <c r="D11" s="15"/>
     </row>
-    <row r="12" spans="1:4" s="51" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="51" customFormat="1" ht="14" customHeight="1">
       <c r="A12" s="118"/>
       <c r="B12" s="80"/>
       <c r="C12" s="111"/>
       <c r="D12" s="15"/>
     </row>
-    <row r="13" spans="1:4" s="122" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="122" customFormat="1" ht="14" customHeight="1">
       <c r="A13" s="116" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B13" s="120"/>
       <c r="C13" s="121"/>
       <c r="D13" s="21"/>
     </row>
-    <row r="14" spans="1:4" s="51" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="51" customFormat="1" ht="14" customHeight="1">
       <c r="A14" s="117" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B14" s="80"/>
       <c r="C14" s="111"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="1:4" s="51" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="51" customFormat="1" ht="14" customHeight="1">
       <c r="A15" s="117" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B15" s="80"/>
       <c r="C15" s="111"/>
       <c r="D15" s="15"/>
     </row>
-    <row r="16" spans="1:4" s="51" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="51" customFormat="1" ht="14" customHeight="1">
       <c r="A16" s="117" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B16" s="69"/>
       <c r="C16" s="111"/>
       <c r="D16" s="15"/>
     </row>
-    <row r="17" spans="1:8" s="51" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="51" customFormat="1" ht="14" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>16</v>
       </c>
@@ -2487,9 +2511,9 @@
       <c r="C17" s="112"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="1:8" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="13" customFormat="1" ht="17.25" customHeight="1">
       <c r="A18" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B18" s="81"/>
       <c r="C18" s="17"/>
@@ -2498,15 +2522,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="13" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B19" s="82"/>
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:8" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A20" s="56" t="s">
         <v>17</v>
       </c>
@@ -2517,7 +2541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A21" s="55" t="s">
         <v>19</v>
       </c>
@@ -2525,47 +2549,47 @@
       <c r="C21" s="110"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:8" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A22" s="56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="84"/>
       <c r="C22" s="111"/>
       <c r="D22" s="15"/>
     </row>
-    <row r="23" spans="1:8" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A23" s="59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="80"/>
       <c r="C23" s="111"/>
       <c r="D23" s="12"/>
     </row>
-    <row r="24" spans="1:8" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A24" s="57" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B24" s="80"/>
       <c r="C24" s="111"/>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:8" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A25" s="60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="85"/>
       <c r="C25" s="111"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:8" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A26" s="60" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" s="86"/>
       <c r="C26" s="111"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:8" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="13" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="58" t="s">
         <v>16</v>
       </c>
@@ -2573,21 +2597,21 @@
       <c r="C27" s="112"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:8" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="13" customFormat="1" ht="13.5" customHeight="1">
       <c r="A28" s="64"/>
       <c r="B28" s="70"/>
       <c r="C28" s="15"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:8" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="13" customFormat="1" ht="13.5" customHeight="1">
       <c r="A29" s="20"/>
       <c r="B29" s="71"/>
       <c r="C29" s="21"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:8" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="16" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B30" s="81"/>
       <c r="C30" s="17"/>
@@ -2596,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="13" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A31" s="22" t="s">
         <v>8</v>
       </c>
@@ -2607,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="13" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A32" s="23" t="s">
         <v>9</v>
       </c>
@@ -2615,9 +2639,9 @@
       <c r="C32" s="24"/>
       <c r="D32" s="25"/>
     </row>
-    <row r="33" spans="1:4" s="13" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A33" s="26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B33" s="89"/>
       <c r="C33" s="27"/>
@@ -2626,23 +2650,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A34" s="65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B34" s="90"/>
       <c r="C34" s="110"/>
       <c r="D34" s="28"/>
     </row>
-    <row r="35" spans="1:4" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A35" s="29"/>
       <c r="B35" s="91"/>
       <c r="C35" s="113"/>
       <c r="D35" s="28"/>
     </row>
-    <row r="36" spans="1:4" s="13" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A36" s="31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B36" s="91"/>
       <c r="C36" s="12"/>
@@ -2651,31 +2675,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A37" s="53" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B37" s="92"/>
       <c r="C37" s="110"/>
       <c r="D37" s="21"/>
     </row>
-    <row r="38" spans="1:4" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A38" s="53" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B38" s="71"/>
       <c r="C38" s="114"/>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A39" s="32"/>
       <c r="B39" s="71"/>
       <c r="C39" s="114"/>
       <c r="D39" s="21"/>
     </row>
-    <row r="40" spans="1:4" s="13" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A40" s="30" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B40" s="93"/>
       <c r="C40" s="12"/>
@@ -2684,23 +2708,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" s="13" customFormat="1" ht="13.5" customHeight="1">
       <c r="A41" s="54" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B41" s="71"/>
       <c r="C41" s="114"/>
       <c r="D41" s="21"/>
     </row>
-    <row r="42" spans="1:4" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A42" s="54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B42" s="71"/>
       <c r="C42" s="114"/>
       <c r="D42" s="21"/>
     </row>
-    <row r="43" spans="1:4" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A43" s="54" t="s">
         <v>14</v>
       </c>
@@ -2708,15 +2732,15 @@
       <c r="C43" s="114"/>
       <c r="D43" s="21"/>
     </row>
-    <row r="44" spans="1:4" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A44" s="33"/>
       <c r="B44" s="71"/>
       <c r="C44" s="12"/>
       <c r="D44" s="21"/>
     </row>
-    <row r="45" spans="1:4" s="13" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A45" s="30" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B45" s="93"/>
       <c r="C45" s="12"/>
@@ -2725,23 +2749,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A46" s="54" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B46" s="71"/>
       <c r="C46" s="114"/>
       <c r="D46" s="21"/>
     </row>
-    <row r="47" spans="1:4" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A47" s="54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B47" s="71"/>
       <c r="C47" s="114"/>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A48" s="54" t="s">
         <v>15</v>
       </c>
@@ -2749,19 +2773,19 @@
       <c r="C48" s="114"/>
       <c r="D48" s="21"/>
     </row>
-    <row r="49" spans="1:4" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A49" s="52"/>
       <c r="B49" s="94"/>
       <c r="C49" s="115"/>
       <c r="D49" s="36"/>
     </row>
-    <row r="50" spans="1:4" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A50" s="34"/>
       <c r="B50" s="95"/>
       <c r="C50" s="35"/>
       <c r="D50" s="36"/>
     </row>
-    <row r="51" spans="1:4" s="13" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A51" s="37" t="s">
         <v>10</v>
       </c>
@@ -2772,9 +2796,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="43" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" s="43" customFormat="1" ht="16" customHeight="1">
       <c r="A52" s="44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B52" s="45"/>
       <c r="C52" s="46"/>
@@ -2783,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="62" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" s="62" customFormat="1" ht="16" customHeight="1">
       <c r="A53" s="39" t="s">
         <v>13</v>
       </c>
@@ -2791,25 +2815,25 @@
       <c r="C53" s="67"/>
       <c r="D53" s="41"/>
     </row>
-    <row r="54" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="18" customHeight="1">
       <c r="A54" s="123"/>
       <c r="B54" s="124"/>
       <c r="C54" s="124"/>
       <c r="D54" s="125"/>
     </row>
-    <row r="55" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="18" customHeight="1">
       <c r="A55" s="126"/>
       <c r="B55" s="127"/>
       <c r="C55" s="127"/>
       <c r="D55" s="128"/>
     </row>
-    <row r="56" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="18" customHeight="1">
       <c r="A56" s="129"/>
       <c r="B56" s="130"/>
       <c r="C56" s="130"/>
       <c r="D56" s="131"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="B57" s="62"/>
       <c r="C57" s="68"/>
       <c r="D57" s="63"/>
@@ -2819,43 +2843,45 @@
     <mergeCell ref="A54:D56"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.44374999999999998" top="0.98425196850393704" bottom="0.98425196850393704" header="0.47244094488188981" footer="0.55625000000000002"/>
-  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="portrait"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <firstHeader>&amp;L&amp;"Arial Rounded MT Bold,Standard"&amp;16Finanzierungsplan</firstHeader>
     <firstFooter>&amp;R&amp;"-,Standard"&amp;9Senatskanzlei Berlin 3/2015
 Finanzierungsplan Muster</firstFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4097" r:id="rId4" name="Check Box 1">
+            <control shapeId="4097" r:id="rId3" name="Check Box 1">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>160020</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>518160</xdr:colOff>
+                    <xdr:colOff>520700</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>68580</xdr:rowOff>
+                    <xdr:rowOff>63500</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4098" r:id="rId5" name="Check Box 2">
+            <control shapeId="4098" r:id="rId4" name="Check Box 2">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
@@ -2866,7 +2892,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>518160</xdr:colOff>
+                    <xdr:colOff>520700</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -2874,80 +2900,87 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
+    <mc:Fallback/>
   </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="46.33203125" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="4" width="15.6640625" style="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="13" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="13" customFormat="1" ht="28.5" customHeight="1">
       <c r="A1" s="108" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B1" s="109" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="C1" s="73" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D1" s="72"/>
     </row>
-    <row r="2" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16" customHeight="1">
       <c r="A2" s="73" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="135">
+        <v>43768</v>
+      </c>
+      <c r="D2" s="133"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="16" customHeight="1">
+      <c r="A3" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="76" t="s">
         <v>47</v>
-      </c>
-      <c r="C2" s="135">
-        <v>42006</v>
-      </c>
-      <c r="D2" s="133"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="73" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="76" t="s">
-        <v>51</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="61"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="16" customHeight="1">
       <c r="A4" s="73" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="C4" s="66" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="61"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="16" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2961,7 +2994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -2969,97 +3002,97 @@
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" s="11" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="11" customFormat="1" ht="16" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B7" s="79"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" s="11" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="11" customFormat="1" ht="16" customHeight="1">
       <c r="A8" s="119" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B8" s="79"/>
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" s="51" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="51" customFormat="1" ht="27" customHeight="1">
       <c r="A9" s="118" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C9" s="110">
         <v>3000</v>
       </c>
       <c r="D9" s="15"/>
     </row>
-    <row r="10" spans="1:4" s="51" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="51" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="118" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C10" s="111">
         <v>2300</v>
       </c>
       <c r="D10" s="15"/>
     </row>
-    <row r="11" spans="1:4" s="51" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="51" customFormat="1" ht="13.5" customHeight="1">
       <c r="A11" s="118"/>
       <c r="B11" s="80"/>
       <c r="C11" s="111"/>
       <c r="D11" s="15"/>
     </row>
-    <row r="12" spans="1:4" s="51" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="51" customFormat="1" ht="14" customHeight="1">
       <c r="A12" s="116" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B12" s="80"/>
       <c r="C12" s="111"/>
       <c r="D12" s="15"/>
     </row>
-    <row r="13" spans="1:4" s="51" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="51" customFormat="1" ht="27" customHeight="1">
       <c r="A13" s="118" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B13" s="80" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C13" s="111">
         <v>400</v>
       </c>
       <c r="D13" s="15"/>
     </row>
-    <row r="14" spans="1:4" s="51" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="51" customFormat="1" ht="14" customHeight="1">
       <c r="A14" s="118" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B14" s="80" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C14" s="111">
         <v>400</v>
       </c>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="1:4" s="51" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="51" customFormat="1" ht="14" customHeight="1">
       <c r="A15" s="118" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B15" s="69" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C15" s="111">
         <v>1250</v>
       </c>
       <c r="D15" s="15"/>
     </row>
-    <row r="16" spans="1:4" s="51" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="51" customFormat="1" ht="14" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>16</v>
       </c>
@@ -3067,9 +3100,9 @@
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
     </row>
-    <row r="17" spans="1:8" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="13" customFormat="1" ht="17.25" customHeight="1">
       <c r="A17" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B17" s="81"/>
       <c r="C17" s="17"/>
@@ -3078,15 +3111,15 @@
         <v>7350</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="13" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B18" s="82"/>
       <c r="C18" s="18"/>
       <c r="D18" s="19"/>
     </row>
-    <row r="19" spans="1:8" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A19" s="56" t="s">
         <v>17</v>
       </c>
@@ -3101,79 +3134,79 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
-        <v>19</v>
+    <row r="20" spans="1:8" s="13" customFormat="1" ht="14" customHeight="1">
+      <c r="A20" s="56" t="s">
+        <v>110</v>
       </c>
       <c r="B20" s="80" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C20" s="110">
         <v>79</v>
       </c>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" spans="1:8" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A21" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="84" t="s">
         <v>21</v>
-      </c>
-      <c r="B21" s="84" t="s">
-        <v>22</v>
       </c>
       <c r="C21" s="111">
         <v>121</v>
       </c>
       <c r="D21" s="15"/>
     </row>
-    <row r="22" spans="1:8" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A22" s="59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="80" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="C22" s="111">
         <v>700</v>
       </c>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:8" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A23" s="57" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B23" s="80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C23" s="111">
         <v>730</v>
       </c>
       <c r="D23" s="12"/>
     </row>
-    <row r="24" spans="1:8" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A24" s="60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="85" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="C24" s="111">
         <v>550</v>
       </c>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:8" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A25" s="60" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="86" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C25" s="111">
         <v>120</v>
       </c>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:8" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="13" customFormat="1" ht="13.5" customHeight="1">
       <c r="A26" s="58" t="s">
         <v>16</v>
       </c>
@@ -3181,21 +3214,21 @@
       <c r="C26" s="112"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:8" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="13" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="64"/>
       <c r="B27" s="70"/>
       <c r="C27" s="112"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:8" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="13" customFormat="1" ht="13.5" customHeight="1">
       <c r="A28" s="20"/>
       <c r="B28" s="71"/>
       <c r="C28" s="21"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:8" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="16" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B29" s="81"/>
       <c r="C29" s="17"/>
@@ -3204,7 +3237,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="13" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A30" s="22" t="s">
         <v>8</v>
       </c>
@@ -3215,7 +3248,7 @@
         <v>9850</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="13" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A31" s="23" t="s">
         <v>9</v>
       </c>
@@ -3223,9 +3256,9 @@
       <c r="C31" s="24"/>
       <c r="D31" s="25"/>
     </row>
-    <row r="32" spans="1:8" s="13" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A32" s="26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B32" s="89"/>
       <c r="C32" s="27"/>
@@ -3234,27 +3267,27 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A33" s="65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B33" s="90" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33" s="110">
         <v>150</v>
       </c>
       <c r="D33" s="28"/>
     </row>
-    <row r="34" spans="1:4" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A34" s="29"/>
       <c r="B34" s="91"/>
       <c r="C34" s="113"/>
       <c r="D34" s="28"/>
     </row>
-    <row r="35" spans="1:4" s="13" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A35" s="31" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B35" s="91"/>
       <c r="C35" s="12"/>
@@ -3263,39 +3296,39 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A36" s="53" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B36" s="92" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C36" s="110">
         <v>550</v>
       </c>
       <c r="D36" s="21"/>
     </row>
-    <row r="37" spans="1:4" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A37" s="53" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B37" s="71" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C37" s="114">
         <v>800</v>
       </c>
       <c r="D37" s="21"/>
     </row>
-    <row r="38" spans="1:4" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A38" s="32"/>
       <c r="B38" s="71"/>
       <c r="C38" s="12"/>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" s="13" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A39" s="30" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B39" s="93"/>
       <c r="C39" s="12"/>
@@ -3304,31 +3337,31 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" s="13" customFormat="1" ht="25.5" customHeight="1">
       <c r="A40" s="54" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B40" s="71" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C40" s="114">
         <v>1000</v>
       </c>
       <c r="D40" s="21"/>
     </row>
-    <row r="41" spans="1:4" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A41" s="54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B41" s="71" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C41" s="114">
         <v>1500</v>
       </c>
       <c r="D41" s="21"/>
     </row>
-    <row r="42" spans="1:4" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A42" s="54" t="s">
         <v>14</v>
       </c>
@@ -3336,15 +3369,15 @@
       <c r="C42" s="114"/>
       <c r="D42" s="21"/>
     </row>
-    <row r="43" spans="1:4" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A43" s="33"/>
       <c r="B43" s="71"/>
       <c r="C43" s="114"/>
       <c r="D43" s="21"/>
     </row>
-    <row r="44" spans="1:4" s="13" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A44" s="30" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B44" s="93"/>
       <c r="C44" s="12"/>
@@ -3353,31 +3386,31 @@
         <v>750</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A45" s="54" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B45" s="71" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C45" s="114">
         <v>500</v>
       </c>
       <c r="D45" s="21"/>
     </row>
-    <row r="46" spans="1:4" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A46" s="54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B46" s="71" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C46" s="114">
         <v>250</v>
       </c>
       <c r="D46" s="21"/>
     </row>
-    <row r="47" spans="1:4" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A47" s="54" t="s">
         <v>15</v>
       </c>
@@ -3385,19 +3418,19 @@
       <c r="C47" s="114"/>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A48" s="52"/>
       <c r="B48" s="94"/>
       <c r="C48" s="115"/>
       <c r="D48" s="36"/>
     </row>
-    <row r="49" spans="1:4" s="13" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A49" s="34"/>
       <c r="B49" s="95"/>
       <c r="C49" s="115"/>
       <c r="D49" s="36"/>
     </row>
-    <row r="50" spans="1:4" s="13" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A50" s="37" t="s">
         <v>10</v>
       </c>
@@ -3408,9 +3441,9 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="43" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" s="43" customFormat="1" ht="16" customHeight="1">
       <c r="A51" s="44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B51" s="45"/>
       <c r="C51" s="46"/>
@@ -3419,7 +3452,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="62" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" s="62" customFormat="1" ht="16" customHeight="1">
       <c r="A52" s="39" t="s">
         <v>13</v>
       </c>
@@ -3427,93 +3460,95 @@
       <c r="C52" s="67"/>
       <c r="D52" s="41"/>
     </row>
-    <row r="53" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="18" customHeight="1">
       <c r="A53" s="134" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B53" s="124"/>
       <c r="C53" s="124"/>
       <c r="D53" s="125"/>
     </row>
-    <row r="54" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="18" customHeight="1">
       <c r="A54" s="126"/>
       <c r="B54" s="127"/>
       <c r="C54" s="127"/>
       <c r="D54" s="128"/>
     </row>
-    <row r="55" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="18" customHeight="1">
       <c r="A55" s="129"/>
       <c r="B55" s="130"/>
       <c r="C55" s="130"/>
       <c r="D55" s="131"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="B56" s="62"/>
       <c r="C56" s="68"/>
       <c r="D56" s="63"/>
     </row>
-    <row r="57" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:4" ht="12" customHeight="1"/>
+    <row r="58" spans="1:4" hidden="1"/>
+    <row r="59" spans="1:4" hidden="1"/>
+    <row r="60" spans="1:4" hidden="1"/>
+    <row r="61" spans="1:4" hidden="1"/>
+    <row r="62" spans="1:4" hidden="1"/>
+    <row r="63" spans="1:4" hidden="1"/>
+    <row r="64" spans="1:4" hidden="1"/>
+    <row r="65" hidden="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A53:D55"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.78740157480314965" bottom="0.88749999999999996" header="0.34531250000000002" footer="0.61250000000000004"/>
-  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Arial Rounded MT Bold,Standard"&amp;16Finanzierungsplan Beispiel</oddHeader>
     <oddFooter>&amp;R&amp;"-,Standard"&amp;9Senatskanzlei Berlin 3/2015
 Finanzierungsplan Beispiel</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId4" name="Check Box 1">
+            <control shapeId="2049" r:id="rId3" name="Check Box 1">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>861060</xdr:colOff>
+                    <xdr:colOff>863600</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>160020</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:colOff>330200</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>68580</xdr:rowOff>
+                    <xdr:rowOff>63500</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2050" r:id="rId5" name="Check Box 2">
+            <control shapeId="2050" r:id="rId4" name="Check Box 2">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>861060</xdr:colOff>
+                    <xdr:colOff>863600</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:colOff>330200</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3521,9 +3556,16 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
+    <mc:Fallback/>
   </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/static/docs/antrag_finanzierungsplan_muster.xlsx
+++ b/static/docs/antrag_finanzierungsplan_muster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="800" windowWidth="20320" windowHeight="12620" activeTab="2"/>
+    <workbookView xWindow="3440" yWindow="800" windowWidth="20320" windowHeight="12620"/>
   </bookViews>
   <sheets>
     <sheet name="Finanzierungsplan_Hinweise" sheetId="4" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
   <si>
     <t xml:space="preserve">Nettobetrag </t>
   </si>
@@ -265,9 +265,6 @@
     <t xml:space="preserve">2.7. Gebühren </t>
   </si>
   <si>
-    <t>Bei dringenden Fragen wenden Sie sich bitte an</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Zeitraum </t>
     </r>
@@ -396,12 +393,6 @@
     <t>Gern können Sie bei Bedarf weitere Zeilen hinzufügen oder nicht benötigte Zeilen löschen.</t>
   </si>
   <si>
-    <t>Kerstin Neuwirth</t>
-  </si>
-  <si>
-    <t>E-Mail: kerstin.neuwirth@senatskanzlei.berlin.de</t>
-  </si>
-  <si>
     <t>Datum:</t>
   </si>
   <si>
@@ -457,9 +448,6 @@
   </si>
   <si>
     <t>Projektleitung:</t>
-  </si>
-  <si>
-    <t>Tel. 030 9026 2190; do. und fr. im HomeOffice 05721 98 22 39</t>
   </si>
   <si>
     <t xml:space="preserve">Geschenke, Premierenfeiern, Bewirtungskosten bzw. Arbeitsessen etc.), Grundgebühren für Telefon, </t>
@@ -774,22 +762,6 @@
     <t>1.2 Externe (Honorare max. 25 Euro je Stunde brutto)</t>
   </si>
   <si>
-    <t>ZS 21 - Finanzen, Anti-Korruption</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Personalausgaben (für eigene Beschäftigte); Mindestlohn gemäß § 7 Abs. 1 Satz 1 i.V.m. § 9 Landesmindestlohngesetz </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(GVBI. 28.12.2013), im Übrigen wegen des Besserstellungsverbots vergleichbar nach Angleichungstarifvertrag für den öffentlichen Dienst des Landes Berlin</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Frau XYZ, 100 Stunden je 30 Euro, vergleichbar E 13 AngleichungsTV Berlin </t>
   </si>
   <si>
@@ -825,6 +797,9 @@
   </si>
   <si>
     <t>Die Neuland e.V. stellt für zwei Tage Räume und einen Techniker für insgesamt acht Stunden zur Verfügung. Die ersparten Ausgaben haben einen Wert von ca. 500 Euro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Personalausgaben (für eigene Beschäftigte); Der aktuelle gesetzliche Mindestlohn ist zu beachten. Weitere Personalkosten sind aufgrund des Besserstellungsverbots am geltenden Tarifvertrag öffentlicher Dienst des Landes Berlin auszurichten. </t>
   </si>
 </sst>
 </file>
@@ -2150,8 +2125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2166,32 +2141,32 @@
     </row>
     <row r="2" spans="1:1" ht="18" customHeight="1">
       <c r="A2" s="107" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18" customHeight="1">
       <c r="A3" s="107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18" customHeight="1">
       <c r="A4" s="107" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18" customHeight="1">
       <c r="A5" s="97" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18" customHeight="1">
       <c r="A6" s="97" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="18" customHeight="1">
       <c r="A7" s="97" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="18" customHeight="1">
@@ -2199,27 +2174,27 @@
     </row>
     <row r="9" spans="1:1" ht="18" customHeight="1">
       <c r="A9" s="98" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="18" customHeight="1">
       <c r="A10" s="99" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="34">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="36">
       <c r="A11" s="100" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="18" customHeight="1">
       <c r="A12" s="99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="18" customHeight="1">
       <c r="A13" s="99" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="18" customHeight="1">
@@ -2227,37 +2202,37 @@
     </row>
     <row r="15" spans="1:1" ht="18" customHeight="1">
       <c r="A15" s="98" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="18" customHeight="1">
       <c r="A16" s="99" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18" customHeight="1">
       <c r="A17" s="99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="18" customHeight="1">
       <c r="A18" s="99" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="18" customHeight="1">
       <c r="A19" s="99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="18" customHeight="1">
       <c r="A20" s="99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="18" customHeight="1">
       <c r="A21" s="99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="18" customHeight="1">
@@ -2265,7 +2240,7 @@
     </row>
     <row r="23" spans="1:1" ht="18" customHeight="1">
       <c r="A23" s="99" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="18" customHeight="1">
@@ -2277,41 +2252,31 @@
       <c r="A25" s="99"/>
     </row>
     <row r="26" spans="1:1" ht="18" customHeight="1">
-      <c r="A26" s="102" t="s">
-        <v>25</v>
-      </c>
+      <c r="A26" s="102"/>
     </row>
     <row r="27" spans="1:1" ht="18" customHeight="1">
-      <c r="A27" s="103" t="s">
-        <v>43</v>
-      </c>
+      <c r="A27" s="103"/>
     </row>
     <row r="28" spans="1:1" ht="18" customHeight="1">
-      <c r="A28" s="103" t="s">
-        <v>104</v>
-      </c>
+      <c r="A28" s="103"/>
     </row>
     <row r="29" spans="1:1" ht="18" customHeight="1">
-      <c r="A29" s="103" t="s">
-        <v>58</v>
-      </c>
+      <c r="A29" s="103"/>
     </row>
     <row r="30" spans="1:1" ht="18" customHeight="1">
-      <c r="A30" s="103" t="s">
-        <v>44</v>
-      </c>
+      <c r="A30" s="103"/>
     </row>
     <row r="31" spans="1:1" ht="18" customHeight="1">
       <c r="A31" s="101"/>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="98" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="18" customHeight="1">
       <c r="A33" s="99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="18" customHeight="1">
@@ -2367,17 +2332,17 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1">
       <c r="A1" s="108" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B1" s="105"/>
       <c r="C1" s="73" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D1" s="72"/>
     </row>
     <row r="2" spans="1:4" ht="16" customHeight="1">
       <c r="A2" s="73" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="75"/>
       <c r="C2" s="132"/>
@@ -2385,7 +2350,7 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="16" customHeight="1">
       <c r="A3" s="73" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B3" s="76"/>
       <c r="C3" s="66" t="s">
@@ -2395,7 +2360,7 @@
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="16" customHeight="1">
       <c r="A4" s="73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="76"/>
       <c r="C4" s="66" t="s">
@@ -2427,7 +2392,7 @@
     </row>
     <row r="7" spans="1:4" s="11" customFormat="1" ht="16" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B7" s="79"/>
       <c r="C7" s="9"/>
@@ -2435,7 +2400,7 @@
     </row>
     <row r="8" spans="1:4" s="11" customFormat="1" ht="16" customHeight="1">
       <c r="A8" s="119" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B8" s="79"/>
       <c r="C8" s="9"/>
@@ -2443,7 +2408,7 @@
     </row>
     <row r="9" spans="1:4" s="51" customFormat="1" ht="14" customHeight="1">
       <c r="A9" s="117" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B9" s="80"/>
       <c r="C9" s="110"/>
@@ -2451,7 +2416,7 @@
     </row>
     <row r="10" spans="1:4" s="51" customFormat="1" ht="14" customHeight="1">
       <c r="A10" s="117" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B10" s="80"/>
       <c r="C10" s="111"/>
@@ -2459,7 +2424,7 @@
     </row>
     <row r="11" spans="1:4" s="51" customFormat="1" ht="14" customHeight="1">
       <c r="A11" s="117" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B11" s="80"/>
       <c r="C11" s="111"/>
@@ -2473,7 +2438,7 @@
     </row>
     <row r="13" spans="1:4" s="122" customFormat="1" ht="14" customHeight="1">
       <c r="A13" s="116" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B13" s="120"/>
       <c r="C13" s="121"/>
@@ -2481,7 +2446,7 @@
     </row>
     <row r="14" spans="1:4" s="51" customFormat="1" ht="14" customHeight="1">
       <c r="A14" s="117" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B14" s="80"/>
       <c r="C14" s="111"/>
@@ -2489,7 +2454,7 @@
     </row>
     <row r="15" spans="1:4" s="51" customFormat="1" ht="14" customHeight="1">
       <c r="A15" s="117" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B15" s="80"/>
       <c r="C15" s="111"/>
@@ -2497,7 +2462,7 @@
     </row>
     <row r="16" spans="1:4" s="51" customFormat="1" ht="14" customHeight="1">
       <c r="A16" s="117" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B16" s="69"/>
       <c r="C16" s="111"/>
@@ -2513,7 +2478,7 @@
     </row>
     <row r="18" spans="1:8" s="13" customFormat="1" ht="17.25" customHeight="1">
       <c r="A18" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B18" s="81"/>
       <c r="C18" s="17"/>
@@ -2524,7 +2489,7 @@
     </row>
     <row r="19" spans="1:8" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B19" s="82"/>
       <c r="C19" s="18"/>
@@ -2567,7 +2532,7 @@
     </row>
     <row r="24" spans="1:8" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A24" s="57" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B24" s="80"/>
       <c r="C24" s="111"/>
@@ -2611,7 +2576,7 @@
     </row>
     <row r="30" spans="1:8" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B30" s="81"/>
       <c r="C30" s="17"/>
@@ -2641,7 +2606,7 @@
     </row>
     <row r="33" spans="1:4" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A33" s="26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B33" s="89"/>
       <c r="C33" s="27"/>
@@ -2652,7 +2617,7 @@
     </row>
     <row r="34" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A34" s="65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="90"/>
       <c r="C34" s="110"/>
@@ -2666,7 +2631,7 @@
     </row>
     <row r="36" spans="1:4" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A36" s="31" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B36" s="91"/>
       <c r="C36" s="12"/>
@@ -2677,7 +2642,7 @@
     </row>
     <row r="37" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A37" s="53" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B37" s="92"/>
       <c r="C37" s="110"/>
@@ -2685,7 +2650,7 @@
     </row>
     <row r="38" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A38" s="53" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B38" s="71"/>
       <c r="C38" s="114"/>
@@ -2699,7 +2664,7 @@
     </row>
     <row r="40" spans="1:4" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A40" s="30" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B40" s="93"/>
       <c r="C40" s="12"/>
@@ -2710,7 +2675,7 @@
     </row>
     <row r="41" spans="1:4" s="13" customFormat="1" ht="13.5" customHeight="1">
       <c r="A41" s="54" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B41" s="71"/>
       <c r="C41" s="114"/>
@@ -2718,7 +2683,7 @@
     </row>
     <row r="42" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A42" s="54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42" s="71"/>
       <c r="C42" s="114"/>
@@ -2740,7 +2705,7 @@
     </row>
     <row r="45" spans="1:4" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A45" s="30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B45" s="93"/>
       <c r="C45" s="12"/>
@@ -2751,7 +2716,7 @@
     </row>
     <row r="46" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A46" s="54" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B46" s="71"/>
       <c r="C46" s="114"/>
@@ -2759,7 +2724,7 @@
     </row>
     <row r="47" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A47" s="54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B47" s="71"/>
       <c r="C47" s="114"/>
@@ -2798,7 +2763,7 @@
     </row>
     <row r="52" spans="1:4" s="43" customFormat="1" ht="16" customHeight="1">
       <c r="A52" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B52" s="45"/>
       <c r="C52" s="46"/>
@@ -2921,7 +2886,7 @@
   </sheetPr>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A34" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A47" workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
@@ -2934,22 +2899,22 @@
   <sheetData>
     <row r="1" spans="1:4" s="13" customFormat="1" ht="28.5" customHeight="1">
       <c r="A1" s="108" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B1" s="109" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C1" s="73" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D1" s="72"/>
     </row>
     <row r="2" spans="1:4" ht="16" customHeight="1">
       <c r="A2" s="73" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C2" s="135">
         <v>43768</v>
@@ -2958,10 +2923,10 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="16" customHeight="1">
       <c r="A3" s="73" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>0</v>
@@ -2970,10 +2935,10 @@
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="16" customHeight="1">
       <c r="A4" s="73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C4" s="66" t="s">
         <v>1</v>
@@ -3004,7 +2969,7 @@
     </row>
     <row r="7" spans="1:4" s="11" customFormat="1" ht="16" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B7" s="79"/>
       <c r="C7" s="9"/>
@@ -3012,7 +2977,7 @@
     </row>
     <row r="8" spans="1:4" s="11" customFormat="1" ht="16" customHeight="1">
       <c r="A8" s="119" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B8" s="79"/>
       <c r="C8" s="9"/>
@@ -3020,10 +2985,10 @@
     </row>
     <row r="9" spans="1:4" s="51" customFormat="1" ht="27" customHeight="1">
       <c r="A9" s="118" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C9" s="110">
         <v>3000</v>
@@ -3032,10 +2997,10 @@
     </row>
     <row r="10" spans="1:4" s="51" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="118" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C10" s="111">
         <v>2300</v>
@@ -3050,7 +3015,7 @@
     </row>
     <row r="12" spans="1:4" s="51" customFormat="1" ht="14" customHeight="1">
       <c r="A12" s="116" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B12" s="80"/>
       <c r="C12" s="111"/>
@@ -3058,10 +3023,10 @@
     </row>
     <row r="13" spans="1:4" s="51" customFormat="1" ht="27" customHeight="1">
       <c r="A13" s="118" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B13" s="80" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C13" s="111">
         <v>400</v>
@@ -3070,10 +3035,10 @@
     </row>
     <row r="14" spans="1:4" s="51" customFormat="1" ht="14" customHeight="1">
       <c r="A14" s="118" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B14" s="80" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C14" s="111">
         <v>400</v>
@@ -3082,10 +3047,10 @@
     </row>
     <row r="15" spans="1:4" s="51" customFormat="1" ht="14" customHeight="1">
       <c r="A15" s="118" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B15" s="69" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C15" s="111">
         <v>1250</v>
@@ -3102,7 +3067,7 @@
     </row>
     <row r="17" spans="1:8" s="13" customFormat="1" ht="17.25" customHeight="1">
       <c r="A17" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B17" s="81"/>
       <c r="C17" s="17"/>
@@ -3113,7 +3078,7 @@
     </row>
     <row r="18" spans="1:8" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B18" s="82"/>
       <c r="C18" s="18"/>
@@ -3136,10 +3101,10 @@
     </row>
     <row r="20" spans="1:8" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A20" s="56" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B20" s="80" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C20" s="110">
         <v>79</v>
@@ -3163,7 +3128,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="80" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C22" s="111">
         <v>700</v>
@@ -3172,10 +3137,10 @@
     </row>
     <row r="23" spans="1:8" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A23" s="57" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B23" s="80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="111">
         <v>730</v>
@@ -3187,7 +3152,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="85" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C24" s="111">
         <v>550</v>
@@ -3199,7 +3164,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="111">
         <v>120</v>
@@ -3228,7 +3193,7 @@
     </row>
     <row r="29" spans="1:8" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B29" s="81"/>
       <c r="C29" s="17"/>
@@ -3258,7 +3223,7 @@
     </row>
     <row r="32" spans="1:8" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A32" s="26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B32" s="89"/>
       <c r="C32" s="27"/>
@@ -3269,10 +3234,10 @@
     </row>
     <row r="33" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A33" s="65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="110">
         <v>150</v>
@@ -3287,7 +3252,7 @@
     </row>
     <row r="35" spans="1:4" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A35" s="31" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B35" s="91"/>
       <c r="C35" s="12"/>
@@ -3298,10 +3263,10 @@
     </row>
     <row r="36" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A36" s="53" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B36" s="92" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C36" s="110">
         <v>550</v>
@@ -3310,10 +3275,10 @@
     </row>
     <row r="37" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A37" s="53" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B37" s="71" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C37" s="114">
         <v>800</v>
@@ -3328,7 +3293,7 @@
     </row>
     <row r="39" spans="1:4" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A39" s="30" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B39" s="93"/>
       <c r="C39" s="12"/>
@@ -3339,10 +3304,10 @@
     </row>
     <row r="40" spans="1:4" s="13" customFormat="1" ht="25.5" customHeight="1">
       <c r="A40" s="54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B40" s="71" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C40" s="114">
         <v>1000</v>
@@ -3351,10 +3316,10 @@
     </row>
     <row r="41" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A41" s="54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41" s="71" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C41" s="114">
         <v>1500</v>
@@ -3377,7 +3342,7 @@
     </row>
     <row r="44" spans="1:4" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A44" s="30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B44" s="93"/>
       <c r="C44" s="12"/>
@@ -3388,10 +3353,10 @@
     </row>
     <row r="45" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A45" s="54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45" s="71" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C45" s="114">
         <v>500</v>
@@ -3400,10 +3365,10 @@
     </row>
     <row r="46" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
       <c r="A46" s="54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B46" s="71" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C46" s="114">
         <v>250</v>
@@ -3443,7 +3408,7 @@
     </row>
     <row r="51" spans="1:4" s="43" customFormat="1" ht="16" customHeight="1">
       <c r="A51" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B51" s="45"/>
       <c r="C51" s="46"/>
@@ -3462,7 +3427,7 @@
     </row>
     <row r="53" spans="1:4" ht="18" customHeight="1">
       <c r="A53" s="134" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B53" s="124"/>
       <c r="C53" s="124"/>
